--- a/artfynd/A 27718-2019.xlsx
+++ b/artfynd/A 27718-2019.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AY8"/>
+  <dimension ref="A1:AY10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>98445540</v>
+        <v>111908383</v>
       </c>
       <c r="B2" t="n">
-        <v>77258</v>
+        <v>90670</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -692,41 +692,42 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>6446</v>
+        <v>4365</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Kolflarnlav</t>
+          <t>Smalfotad taggsvamp</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Carbonicola anthracophila</t>
+          <t>Hydnellum gracilipes</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>(Nyl.) Bendiksby &amp; Timdal</t>
+          <t>(P.Karst) P.Karst</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
+      <c r="K2" t="inlineStr"/>
       <c r="P2" t="inlineStr">
         <is>
-          <t>Stora Tjädersjön söder om, Dlr</t>
+          <t>Prästtjärnen (Prästtjärnen), Dlr</t>
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>518526.4438305593</v>
+        <v>518003.61510633</v>
       </c>
       <c r="R2" t="n">
-        <v>6790222.206952647</v>
+        <v>6789983.610409672</v>
       </c>
       <c r="S2" t="n">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="T2" t="inlineStr">
         <is>
@@ -750,27 +751,22 @@
       </c>
       <c r="Y2" t="inlineStr">
         <is>
-          <t>2020-11-04</t>
+          <t>2023-09-05</t>
         </is>
       </c>
       <c r="Z2" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>13:25</t>
         </is>
       </c>
       <c r="AA2" t="inlineStr">
         <is>
-          <t>2020-11-04</t>
+          <t>2023-09-05</t>
         </is>
       </c>
       <c r="AB2" t="inlineStr">
         <is>
-          <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC2" t="inlineStr">
-        <is>
-          <t>kolade brandstubbar flera brandljud i serie.</t>
+          <t>13:25</t>
         </is>
       </c>
       <c r="AD2" t="b">
@@ -785,22 +781,22 @@
       <c r="AT2" t="inlineStr"/>
       <c r="AW2" t="inlineStr">
         <is>
-          <t>Uno Skog</t>
+          <t>Andreas Öster</t>
         </is>
       </c>
       <c r="AX2" t="inlineStr">
         <is>
-          <t>Uno Skog</t>
+          <t>Andreas Öster</t>
         </is>
       </c>
       <c r="AY2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>98445567</v>
+        <v>111908386</v>
       </c>
       <c r="B3" t="n">
-        <v>77259</v>
+        <v>88489</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -813,37 +809,38 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>228912</v>
+        <v>1962</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Mörk kolflarnlav</t>
+          <t>Vaddporing</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Carbonicola myrmecina</t>
+          <t>Anomoporia kamtschatica</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(Ach.) Bendiksby &amp; Timdal</t>
+          <t>(Parmasto) Bondartseva</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
       <c r="P3" t="inlineStr">
         <is>
-          <t>Stora Tjädersjön söder om, Dlr</t>
+          <t>Prästtjärnen (Prästtjärnen), Dlr</t>
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>518525.4694672552</v>
+        <v>518003.61510633</v>
       </c>
       <c r="R3" t="n">
-        <v>6790224.127243591</v>
+        <v>6789983.610409672</v>
       </c>
       <c r="S3" t="n">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="T3" t="inlineStr">
         <is>
@@ -867,27 +864,22 @@
       </c>
       <c r="Y3" t="inlineStr">
         <is>
-          <t>2020-11-04</t>
+          <t>2023-09-05</t>
         </is>
       </c>
       <c r="Z3" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>13:25</t>
         </is>
       </c>
       <c r="AA3" t="inlineStr">
         <is>
-          <t>2020-11-04</t>
+          <t>2023-09-05</t>
         </is>
       </c>
       <c r="AB3" t="inlineStr">
         <is>
-          <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC3" t="inlineStr">
-        <is>
-          <t>Gallrad tallskog. Tidigare stavatallskog. Klen rätt senvuxen blockig skog.</t>
+          <t>13:25</t>
         </is>
       </c>
       <c r="AD3" t="b">
@@ -902,22 +894,22 @@
       <c r="AT3" t="inlineStr"/>
       <c r="AW3" t="inlineStr">
         <is>
-          <t>Uno Skog</t>
+          <t>Andreas Öster</t>
         </is>
       </c>
       <c r="AX3" t="inlineStr">
         <is>
-          <t>Uno Skog</t>
+          <t>Andreas Öster</t>
         </is>
       </c>
       <c r="AY3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>98445551</v>
+        <v>98445540</v>
       </c>
       <c r="B4" t="n">
-        <v>78098</v>
+        <v>77258</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -930,21 +922,21 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>6453</v>
+        <v>6446</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Vedskivlav</t>
+          <t>Kolflarnlav</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Hertelidea botryosa</t>
+          <t>Carbonicola anthracophila</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(Fr.) Printzen &amp; Kantvilas</t>
+          <t>(Nyl.) Bendiksby &amp; Timdal</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
@@ -954,10 +946,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>518387.5544031779</v>
+        <v>518526.4438305593</v>
       </c>
       <c r="R4" t="n">
-        <v>6790138.199902427</v>
+        <v>6790222.206952647</v>
       </c>
       <c r="S4" t="n">
         <v>5</v>
@@ -1000,6 +992,11 @@
       <c r="AB4" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC4" t="inlineStr">
+        <is>
+          <t>kolade brandstubbar flera brandljud i serie.</t>
         </is>
       </c>
       <c r="AD4" t="b">
@@ -1026,10 +1023,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>98445554</v>
+        <v>98445567</v>
       </c>
       <c r="B5" t="n">
-        <v>56411</v>
+        <v>77259</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1042,21 +1039,21 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>100049</v>
+        <v>228912</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Mörk kolflarnlav</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Dryocopus martius</t>
+          <t>Carbonicola myrmecina</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Bendiksby &amp; Timdal</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
@@ -1066,10 +1063,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>518368.5423215606</v>
+        <v>518525.4694672552</v>
       </c>
       <c r="R5" t="n">
-        <v>6790086.111857381</v>
+        <v>6790224.127243591</v>
       </c>
       <c r="S5" t="n">
         <v>5</v>
@@ -1112,6 +1109,11 @@
       <c r="AB5" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC5" t="inlineStr">
+        <is>
+          <t>Gallrad tallskog. Tidigare stavatallskog. Klen rätt senvuxen blockig skog.</t>
         </is>
       </c>
       <c r="AD5" t="b">
@@ -1138,10 +1140,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>98445547</v>
+        <v>98445551</v>
       </c>
       <c r="B6" t="n">
-        <v>43464</v>
+        <v>78098</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1150,25 +1152,25 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>101735</v>
+        <v>6453</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Jättesvampmal</t>
+          <t>Vedskivlav</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Scardia boletella</t>
+          <t>Hertelidea botryosa</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(Fabricius, 1794)</t>
+          <t>(Fr.) Printzen &amp; Kantvilas</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
@@ -1178,10 +1180,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>518367.5831320664</v>
+        <v>518387.5544031779</v>
       </c>
       <c r="R6" t="n">
-        <v>6790085.144078439</v>
+        <v>6790138.199902427</v>
       </c>
       <c r="S6" t="n">
         <v>5</v>
@@ -1224,11 +1226,6 @@
       <c r="AB6" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC6" t="inlineStr">
-        <is>
-          <t>Spår i Fnöskticka på liggande död halvmurken björklåga.</t>
         </is>
       </c>
       <c r="AD6" t="b">
@@ -1255,10 +1252,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>98445570</v>
+        <v>98445554</v>
       </c>
       <c r="B7" t="n">
-        <v>79433</v>
+        <v>56411</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1271,21 +1268,21 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>1049</v>
+        <v>100049</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Kortskaftad ärgspik</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Microcalicium ahlneri</t>
+          <t>Dryocopus martius</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>Tibell</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
@@ -1295,10 +1292,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>518389.0057754845</v>
+        <v>518368.5423215606</v>
       </c>
       <c r="R7" t="n">
-        <v>6790137.24476972</v>
+        <v>6790086.111857381</v>
       </c>
       <c r="S7" t="n">
         <v>5</v>
@@ -1341,11 +1338,6 @@
       <c r="AB7" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC7" t="inlineStr">
-        <is>
-          <t>brandhögstubbe artrik</t>
         </is>
       </c>
       <c r="AD7" t="b">
@@ -1372,10 +1364,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>109005462</v>
+        <v>98445547</v>
       </c>
       <c r="B8" t="n">
-        <v>89666</v>
+        <v>43464</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1384,51 +1376,41 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>CR</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>6008693</v>
+        <v>101735</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Kritporing</t>
+          <t>Jättesvampmal</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Resinoporia crassa</t>
+          <t>Scardia boletella</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>(P.Karst.) Audet</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="J8" t="inlineStr">
-        <is>
-          <t>mycel</t>
-        </is>
-      </c>
-      <c r="K8" t="inlineStr"/>
+          <t>(Fabricius, 1794)</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr"/>
       <c r="P8" t="inlineStr">
         <is>
-          <t>Tjädersjöån, Dlr</t>
+          <t>Stora Tjädersjön söder om, Dlr</t>
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>518434.8797151824</v>
+        <v>518367.5831320664</v>
       </c>
       <c r="R8" t="n">
-        <v>6790306.924078748</v>
+        <v>6790085.144078439</v>
       </c>
       <c r="S8" t="n">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="T8" t="inlineStr">
         <is>
@@ -1452,22 +1434,27 @@
       </c>
       <c r="Y8" t="inlineStr">
         <is>
-          <t>2023-05-12</t>
+          <t>2020-11-04</t>
         </is>
       </c>
       <c r="Z8" t="inlineStr">
         <is>
-          <t>11:01</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AA8" t="inlineStr">
         <is>
-          <t>2023-05-12</t>
+          <t>2020-11-04</t>
         </is>
       </c>
       <c r="AB8" t="inlineStr">
         <is>
-          <t>11:01</t>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC8" t="inlineStr">
+        <is>
+          <t>Spår i Fnöskticka på liggande död halvmurken björklåga.</t>
         </is>
       </c>
       <c r="AD8" t="b">
@@ -1482,15 +1469,254 @@
       <c r="AT8" t="inlineStr"/>
       <c r="AW8" t="inlineStr">
         <is>
+          <t>Uno Skog</t>
+        </is>
+      </c>
+      <c r="AX8" t="inlineStr">
+        <is>
+          <t>Uno Skog</t>
+        </is>
+      </c>
+      <c r="AY8" t="inlineStr"/>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>98445570</v>
+      </c>
+      <c r="B9" t="n">
+        <v>79433</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E9" t="n">
+        <v>1049</v>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Kortskaftad ärgspik</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>Microcalicium ahlneri</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Tibell</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr"/>
+      <c r="P9" t="inlineStr">
+        <is>
+          <t>Stora Tjädersjön söder om, Dlr</t>
+        </is>
+      </c>
+      <c r="Q9" t="n">
+        <v>518389.0057754845</v>
+      </c>
+      <c r="R9" t="n">
+        <v>6790137.24476972</v>
+      </c>
+      <c r="S9" t="n">
+        <v>5</v>
+      </c>
+      <c r="T9" t="inlineStr">
+        <is>
+          <t>Dalarna</t>
+        </is>
+      </c>
+      <c r="U9" t="inlineStr">
+        <is>
+          <t>Rättvik</t>
+        </is>
+      </c>
+      <c r="V9" t="inlineStr">
+        <is>
+          <t>Dalarna</t>
+        </is>
+      </c>
+      <c r="W9" t="inlineStr">
+        <is>
+          <t>Ore</t>
+        </is>
+      </c>
+      <c r="Y9" t="inlineStr">
+        <is>
+          <t>2020-11-04</t>
+        </is>
+      </c>
+      <c r="Z9" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA9" t="inlineStr">
+        <is>
+          <t>2020-11-04</t>
+        </is>
+      </c>
+      <c r="AB9" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC9" t="inlineStr">
+        <is>
+          <t>brandhögstubbe artrik</t>
+        </is>
+      </c>
+      <c r="AD9" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE9" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG9" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT9" t="inlineStr"/>
+      <c r="AW9" t="inlineStr">
+        <is>
+          <t>Uno Skog</t>
+        </is>
+      </c>
+      <c r="AX9" t="inlineStr">
+        <is>
+          <t>Uno Skog</t>
+        </is>
+      </c>
+      <c r="AY9" t="inlineStr"/>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>109005462</v>
+      </c>
+      <c r="B10" t="n">
+        <v>89666</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>CR</t>
+        </is>
+      </c>
+      <c r="E10" t="n">
+        <v>6008693</v>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Kritporing</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>Resinoporia crassa</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>(P.Karst.) Audet</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>mycel</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr"/>
+      <c r="P10" t="inlineStr">
+        <is>
+          <t>Tjädersjöån, Dlr</t>
+        </is>
+      </c>
+      <c r="Q10" t="n">
+        <v>518434.8797151824</v>
+      </c>
+      <c r="R10" t="n">
+        <v>6790306.924078748</v>
+      </c>
+      <c r="S10" t="n">
+        <v>25</v>
+      </c>
+      <c r="T10" t="inlineStr">
+        <is>
+          <t>Dalarna</t>
+        </is>
+      </c>
+      <c r="U10" t="inlineStr">
+        <is>
+          <t>Rättvik</t>
+        </is>
+      </c>
+      <c r="V10" t="inlineStr">
+        <is>
+          <t>Dalarna</t>
+        </is>
+      </c>
+      <c r="W10" t="inlineStr">
+        <is>
+          <t>Ore</t>
+        </is>
+      </c>
+      <c r="Y10" t="inlineStr">
+        <is>
+          <t>2023-05-12</t>
+        </is>
+      </c>
+      <c r="Z10" t="inlineStr">
+        <is>
+          <t>11:01</t>
+        </is>
+      </c>
+      <c r="AA10" t="inlineStr">
+        <is>
+          <t>2023-05-12</t>
+        </is>
+      </c>
+      <c r="AB10" t="inlineStr">
+        <is>
+          <t>11:01</t>
+        </is>
+      </c>
+      <c r="AD10" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE10" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG10" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT10" t="inlineStr"/>
+      <c r="AW10" t="inlineStr">
+        <is>
           <t>Andreas Öster</t>
         </is>
       </c>
-      <c r="AX8" t="inlineStr">
+      <c r="AX10" t="inlineStr">
         <is>
           <t>Andreas Öster, Maria Hindemo, Niklas Trogen</t>
         </is>
       </c>
-      <c r="AY8" t="inlineStr"/>
+      <c r="AY10" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/artfynd/A 27718-2019.xlsx
+++ b/artfynd/A 27718-2019.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AY10"/>
+  <dimension ref="A1:AY8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>111908383</v>
+        <v>98445540</v>
       </c>
       <c r="B2" t="n">
-        <v>90670</v>
+        <v>77258</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -692,42 +692,41 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>4365</v>
+        <v>6446</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Smalfotad taggsvamp</t>
+          <t>Kolflarnlav</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Hydnellum gracilipes</t>
+          <t>Carbonicola anthracophila</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>(P.Karst) P.Karst</t>
+          <t>(Nyl.) Bendiksby &amp; Timdal</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
       <c r="P2" t="inlineStr">
         <is>
-          <t>Prästtjärnen (Prästtjärnen), Dlr</t>
+          <t>Stora Tjädersjön söder om, Dlr</t>
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>518003.61510633</v>
+        <v>518526.4438305593</v>
       </c>
       <c r="R2" t="n">
-        <v>6789983.610409672</v>
+        <v>6790222.206952647</v>
       </c>
       <c r="S2" t="n">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="T2" t="inlineStr">
         <is>
@@ -751,22 +750,27 @@
       </c>
       <c r="Y2" t="inlineStr">
         <is>
-          <t>2023-09-05</t>
+          <t>2020-11-04</t>
         </is>
       </c>
       <c r="Z2" t="inlineStr">
         <is>
-          <t>13:25</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AA2" t="inlineStr">
         <is>
-          <t>2023-09-05</t>
+          <t>2020-11-04</t>
         </is>
       </c>
       <c r="AB2" t="inlineStr">
         <is>
-          <t>13:25</t>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC2" t="inlineStr">
+        <is>
+          <t>kolade brandstubbar flera brandljud i serie.</t>
         </is>
       </c>
       <c r="AD2" t="b">
@@ -781,22 +785,22 @@
       <c r="AT2" t="inlineStr"/>
       <c r="AW2" t="inlineStr">
         <is>
-          <t>Andreas Öster</t>
+          <t>Uno Skog</t>
         </is>
       </c>
       <c r="AX2" t="inlineStr">
         <is>
-          <t>Andreas Öster</t>
+          <t>Uno Skog</t>
         </is>
       </c>
       <c r="AY2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>111908386</v>
+        <v>98445567</v>
       </c>
       <c r="B3" t="n">
-        <v>88489</v>
+        <v>77259</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -809,38 +813,37 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>1962</v>
+        <v>228912</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Vaddporing</t>
+          <t>Mörk kolflarnlav</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Anomoporia kamtschatica</t>
+          <t>Carbonicola myrmecina</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(Parmasto) Bondartseva</t>
+          <t>(Ach.) Bendiksby &amp; Timdal</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
       <c r="P3" t="inlineStr">
         <is>
-          <t>Prästtjärnen (Prästtjärnen), Dlr</t>
+          <t>Stora Tjädersjön söder om, Dlr</t>
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>518003.61510633</v>
+        <v>518525.4694672552</v>
       </c>
       <c r="R3" t="n">
-        <v>6789983.610409672</v>
+        <v>6790224.127243591</v>
       </c>
       <c r="S3" t="n">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="T3" t="inlineStr">
         <is>
@@ -864,22 +867,27 @@
       </c>
       <c r="Y3" t="inlineStr">
         <is>
-          <t>2023-09-05</t>
+          <t>2020-11-04</t>
         </is>
       </c>
       <c r="Z3" t="inlineStr">
         <is>
-          <t>13:25</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AA3" t="inlineStr">
         <is>
-          <t>2023-09-05</t>
+          <t>2020-11-04</t>
         </is>
       </c>
       <c r="AB3" t="inlineStr">
         <is>
-          <t>13:25</t>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC3" t="inlineStr">
+        <is>
+          <t>Gallrad tallskog. Tidigare stavatallskog. Klen rätt senvuxen blockig skog.</t>
         </is>
       </c>
       <c r="AD3" t="b">
@@ -894,22 +902,22 @@
       <c r="AT3" t="inlineStr"/>
       <c r="AW3" t="inlineStr">
         <is>
-          <t>Andreas Öster</t>
+          <t>Uno Skog</t>
         </is>
       </c>
       <c r="AX3" t="inlineStr">
         <is>
-          <t>Andreas Öster</t>
+          <t>Uno Skog</t>
         </is>
       </c>
       <c r="AY3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>98445540</v>
+        <v>98445551</v>
       </c>
       <c r="B4" t="n">
-        <v>77258</v>
+        <v>78098</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -922,21 +930,21 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>6446</v>
+        <v>6453</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Kolflarnlav</t>
+          <t>Vedskivlav</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Carbonicola anthracophila</t>
+          <t>Hertelidea botryosa</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(Nyl.) Bendiksby &amp; Timdal</t>
+          <t>(Fr.) Printzen &amp; Kantvilas</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
@@ -946,10 +954,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>518526.4438305593</v>
+        <v>518387.5544031779</v>
       </c>
       <c r="R4" t="n">
-        <v>6790222.206952647</v>
+        <v>6790138.199902427</v>
       </c>
       <c r="S4" t="n">
         <v>5</v>
@@ -992,11 +1000,6 @@
       <c r="AB4" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC4" t="inlineStr">
-        <is>
-          <t>kolade brandstubbar flera brandljud i serie.</t>
         </is>
       </c>
       <c r="AD4" t="b">
@@ -1023,10 +1026,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>98445567</v>
+        <v>98445554</v>
       </c>
       <c r="B5" t="n">
-        <v>77259</v>
+        <v>56411</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1039,21 +1042,21 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>228912</v>
+        <v>100049</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Mörk kolflarnlav</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Carbonicola myrmecina</t>
+          <t>Dryocopus martius</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(Ach.) Bendiksby &amp; Timdal</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
@@ -1063,10 +1066,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>518525.4694672552</v>
+        <v>518368.5423215606</v>
       </c>
       <c r="R5" t="n">
-        <v>6790224.127243591</v>
+        <v>6790086.111857381</v>
       </c>
       <c r="S5" t="n">
         <v>5</v>
@@ -1109,11 +1112,6 @@
       <c r="AB5" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC5" t="inlineStr">
-        <is>
-          <t>Gallrad tallskog. Tidigare stavatallskog. Klen rätt senvuxen blockig skog.</t>
         </is>
       </c>
       <c r="AD5" t="b">
@@ -1140,10 +1138,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>98445551</v>
+        <v>98445547</v>
       </c>
       <c r="B6" t="n">
-        <v>78098</v>
+        <v>43464</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1152,25 +1150,25 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>6453</v>
+        <v>101735</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Vedskivlav</t>
+          <t>Jättesvampmal</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Hertelidea botryosa</t>
+          <t>Scardia boletella</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(Fr.) Printzen &amp; Kantvilas</t>
+          <t>(Fabricius, 1794)</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
@@ -1180,10 +1178,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>518387.5544031779</v>
+        <v>518367.5831320664</v>
       </c>
       <c r="R6" t="n">
-        <v>6790138.199902427</v>
+        <v>6790085.144078439</v>
       </c>
       <c r="S6" t="n">
         <v>5</v>
@@ -1226,6 +1224,11 @@
       <c r="AB6" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC6" t="inlineStr">
+        <is>
+          <t>Spår i Fnöskticka på liggande död halvmurken björklåga.</t>
         </is>
       </c>
       <c r="AD6" t="b">
@@ -1252,10 +1255,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>98445554</v>
+        <v>98445570</v>
       </c>
       <c r="B7" t="n">
-        <v>56411</v>
+        <v>79433</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1268,21 +1271,21 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>100049</v>
+        <v>1049</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Kortskaftad ärgspik</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Dryocopus martius</t>
+          <t>Microcalicium ahlneri</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>Tibell</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
@@ -1292,10 +1295,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>518368.5423215606</v>
+        <v>518389.0057754845</v>
       </c>
       <c r="R7" t="n">
-        <v>6790086.111857381</v>
+        <v>6790137.24476972</v>
       </c>
       <c r="S7" t="n">
         <v>5</v>
@@ -1338,6 +1341,11 @@
       <c r="AB7" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC7" t="inlineStr">
+        <is>
+          <t>brandhögstubbe artrik</t>
         </is>
       </c>
       <c r="AD7" t="b">
@@ -1364,10 +1372,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>98445547</v>
+        <v>109005462</v>
       </c>
       <c r="B8" t="n">
-        <v>43464</v>
+        <v>89666</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1376,41 +1384,51 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>CR</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>101735</v>
+        <v>6008693</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Jättesvampmal</t>
+          <t>Kritporing</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Scardia boletella</t>
+          <t>Resinoporia crassa</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>(Fabricius, 1794)</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr"/>
+          <t>(P.Karst.) Audet</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>mycel</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr"/>
       <c r="P8" t="inlineStr">
         <is>
-          <t>Stora Tjädersjön söder om, Dlr</t>
+          <t>Tjädersjöån, Dlr</t>
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>518367.5831320664</v>
+        <v>518434.8797151824</v>
       </c>
       <c r="R8" t="n">
-        <v>6790085.144078439</v>
+        <v>6790306.924078748</v>
       </c>
       <c r="S8" t="n">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="T8" t="inlineStr">
         <is>
@@ -1434,27 +1452,22 @@
       </c>
       <c r="Y8" t="inlineStr">
         <is>
-          <t>2020-11-04</t>
+          <t>2023-05-12</t>
         </is>
       </c>
       <c r="Z8" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>11:01</t>
         </is>
       </c>
       <c r="AA8" t="inlineStr">
         <is>
-          <t>2020-11-04</t>
+          <t>2023-05-12</t>
         </is>
       </c>
       <c r="AB8" t="inlineStr">
         <is>
-          <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC8" t="inlineStr">
-        <is>
-          <t>Spår i Fnöskticka på liggande död halvmurken björklåga.</t>
+          <t>11:01</t>
         </is>
       </c>
       <c r="AD8" t="b">
@@ -1469,254 +1482,15 @@
       <c r="AT8" t="inlineStr"/>
       <c r="AW8" t="inlineStr">
         <is>
-          <t>Uno Skog</t>
+          <t>Andreas Öster</t>
         </is>
       </c>
       <c r="AX8" t="inlineStr">
         <is>
-          <t>Uno Skog</t>
+          <t>Andreas Öster, Maria Hindemo, Niklas Trogen</t>
         </is>
       </c>
       <c r="AY8" t="inlineStr"/>
-    </row>
-    <row r="9">
-      <c r="A9" t="n">
-        <v>98445570</v>
-      </c>
-      <c r="B9" t="n">
-        <v>79433</v>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>Ovaliderad</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>NT</t>
-        </is>
-      </c>
-      <c r="E9" t="n">
-        <v>1049</v>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>Kortskaftad ärgspik</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>Microcalicium ahlneri</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>Tibell</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr"/>
-      <c r="P9" t="inlineStr">
-        <is>
-          <t>Stora Tjädersjön söder om, Dlr</t>
-        </is>
-      </c>
-      <c r="Q9" t="n">
-        <v>518389.0057754845</v>
-      </c>
-      <c r="R9" t="n">
-        <v>6790137.24476972</v>
-      </c>
-      <c r="S9" t="n">
-        <v>5</v>
-      </c>
-      <c r="T9" t="inlineStr">
-        <is>
-          <t>Dalarna</t>
-        </is>
-      </c>
-      <c r="U9" t="inlineStr">
-        <is>
-          <t>Rättvik</t>
-        </is>
-      </c>
-      <c r="V9" t="inlineStr">
-        <is>
-          <t>Dalarna</t>
-        </is>
-      </c>
-      <c r="W9" t="inlineStr">
-        <is>
-          <t>Ore</t>
-        </is>
-      </c>
-      <c r="Y9" t="inlineStr">
-        <is>
-          <t>2020-11-04</t>
-        </is>
-      </c>
-      <c r="Z9" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
-      <c r="AA9" t="inlineStr">
-        <is>
-          <t>2020-11-04</t>
-        </is>
-      </c>
-      <c r="AB9" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC9" t="inlineStr">
-        <is>
-          <t>brandhögstubbe artrik</t>
-        </is>
-      </c>
-      <c r="AD9" t="b">
-        <v>0</v>
-      </c>
-      <c r="AE9" t="b">
-        <v>0</v>
-      </c>
-      <c r="AG9" t="b">
-        <v>0</v>
-      </c>
-      <c r="AT9" t="inlineStr"/>
-      <c r="AW9" t="inlineStr">
-        <is>
-          <t>Uno Skog</t>
-        </is>
-      </c>
-      <c r="AX9" t="inlineStr">
-        <is>
-          <t>Uno Skog</t>
-        </is>
-      </c>
-      <c r="AY9" t="inlineStr"/>
-    </row>
-    <row r="10">
-      <c r="A10" t="n">
-        <v>109005462</v>
-      </c>
-      <c r="B10" t="n">
-        <v>89666</v>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>Ovaliderad</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>CR</t>
-        </is>
-      </c>
-      <c r="E10" t="n">
-        <v>6008693</v>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>Kritporing</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>Resinoporia crassa</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>(P.Karst.) Audet</t>
-        </is>
-      </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="J10" t="inlineStr">
-        <is>
-          <t>mycel</t>
-        </is>
-      </c>
-      <c r="K10" t="inlineStr"/>
-      <c r="P10" t="inlineStr">
-        <is>
-          <t>Tjädersjöån, Dlr</t>
-        </is>
-      </c>
-      <c r="Q10" t="n">
-        <v>518434.8797151824</v>
-      </c>
-      <c r="R10" t="n">
-        <v>6790306.924078748</v>
-      </c>
-      <c r="S10" t="n">
-        <v>25</v>
-      </c>
-      <c r="T10" t="inlineStr">
-        <is>
-          <t>Dalarna</t>
-        </is>
-      </c>
-      <c r="U10" t="inlineStr">
-        <is>
-          <t>Rättvik</t>
-        </is>
-      </c>
-      <c r="V10" t="inlineStr">
-        <is>
-          <t>Dalarna</t>
-        </is>
-      </c>
-      <c r="W10" t="inlineStr">
-        <is>
-          <t>Ore</t>
-        </is>
-      </c>
-      <c r="Y10" t="inlineStr">
-        <is>
-          <t>2023-05-12</t>
-        </is>
-      </c>
-      <c r="Z10" t="inlineStr">
-        <is>
-          <t>11:01</t>
-        </is>
-      </c>
-      <c r="AA10" t="inlineStr">
-        <is>
-          <t>2023-05-12</t>
-        </is>
-      </c>
-      <c r="AB10" t="inlineStr">
-        <is>
-          <t>11:01</t>
-        </is>
-      </c>
-      <c r="AD10" t="b">
-        <v>0</v>
-      </c>
-      <c r="AE10" t="b">
-        <v>0</v>
-      </c>
-      <c r="AG10" t="b">
-        <v>0</v>
-      </c>
-      <c r="AT10" t="inlineStr"/>
-      <c r="AW10" t="inlineStr">
-        <is>
-          <t>Andreas Öster</t>
-        </is>
-      </c>
-      <c r="AX10" t="inlineStr">
-        <is>
-          <t>Andreas Öster, Maria Hindemo, Niklas Trogen</t>
-        </is>
-      </c>
-      <c r="AY10" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/artfynd/A 27718-2019.xlsx
+++ b/artfynd/A 27718-2019.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>111908383</v>
+        <v>111908386</v>
       </c>
       <c r="B2" t="n">
-        <v>90670</v>
+        <v>88489</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -692,25 +692,25 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>4365</v>
+        <v>1962</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Smalfotad taggsvamp</t>
+          <t>Vaddporing</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Hydnellum gracilipes</t>
+          <t>Anomoporia kamtschatica</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>(P.Karst) P.Karst</t>
+          <t>(Parmasto) Bondartseva</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
@@ -793,10 +793,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>111908386</v>
+        <v>111908383</v>
       </c>
       <c r="B3" t="n">
-        <v>88489</v>
+        <v>90670</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -805,25 +805,25 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>1962</v>
+        <v>4365</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Vaddporing</t>
+          <t>Smalfotad taggsvamp</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Anomoporia kamtschatica</t>
+          <t>Hydnellum gracilipes</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(Parmasto) Bondartseva</t>
+          <t>(P.Karst) P.Karst</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>

--- a/artfynd/A 27718-2019.xlsx
+++ b/artfynd/A 27718-2019.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>111908386</v>
+        <v>111908383</v>
       </c>
       <c r="B2" t="n">
-        <v>88489</v>
+        <v>90670</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -692,25 +692,25 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>1962</v>
+        <v>4365</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Vaddporing</t>
+          <t>Smalfotad taggsvamp</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Anomoporia kamtschatica</t>
+          <t>Hydnellum gracilipes</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>(Parmasto) Bondartseva</t>
+          <t>(P.Karst) P.Karst</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
@@ -793,10 +793,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>111908383</v>
+        <v>111908386</v>
       </c>
       <c r="B3" t="n">
-        <v>90670</v>
+        <v>88489</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -805,25 +805,25 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>4365</v>
+        <v>1962</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Smalfotad taggsvamp</t>
+          <t>Vaddporing</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Hydnellum gracilipes</t>
+          <t>Anomoporia kamtschatica</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(P.Karst) P.Karst</t>
+          <t>(Parmasto) Bondartseva</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>

--- a/artfynd/A 27718-2019.xlsx
+++ b/artfynd/A 27718-2019.xlsx
@@ -721,10 +721,10 @@
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>518003.61510633</v>
+        <v>518004</v>
       </c>
       <c r="R2" t="n">
-        <v>6789983.610409672</v>
+        <v>6789984</v>
       </c>
       <c r="S2" t="n">
         <v>25</v>
@@ -834,10 +834,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>518003.61510633</v>
+        <v>518004</v>
       </c>
       <c r="R3" t="n">
-        <v>6789983.610409672</v>
+        <v>6789984</v>
       </c>
       <c r="S3" t="n">
         <v>25</v>

--- a/artfynd/A 27718-2019.xlsx
+++ b/artfynd/A 27718-2019.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AY10"/>
+  <dimension ref="A1:AY12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -683,7 +683,7 @@
         <v>111908383</v>
       </c>
       <c r="B2" t="n">
-        <v>90670</v>
+        <v>90804</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -796,7 +796,7 @@
         <v>111908386</v>
       </c>
       <c r="B3" t="n">
-        <v>88489</v>
+        <v>88623</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -906,10 +906,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>98445540</v>
+        <v>112472885</v>
       </c>
       <c r="B4" t="n">
-        <v>77258</v>
+        <v>90804</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -918,41 +918,42 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>6446</v>
+        <v>4365</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Kolflarnlav</t>
+          <t>Smalfotad taggsvamp</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Carbonicola anthracophila</t>
+          <t>Hydnellum gracilipes</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(Nyl.) Bendiksby &amp; Timdal</t>
+          <t>(P.Karst) P.Karst</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
       <c r="P4" t="inlineStr">
         <is>
-          <t>Stora Tjädersjön söder om, Dlr</t>
+          <t>Prästtjärnen (Prästtjärnen), Dlr</t>
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>518526.4438305593</v>
+        <v>517956</v>
       </c>
       <c r="R4" t="n">
-        <v>6790222.206952647</v>
+        <v>6790407</v>
       </c>
       <c r="S4" t="n">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="T4" t="inlineStr">
         <is>
@@ -976,27 +977,22 @@
       </c>
       <c r="Y4" t="inlineStr">
         <is>
-          <t>2020-11-04</t>
+          <t>2023-10-02</t>
         </is>
       </c>
       <c r="Z4" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>13:12</t>
         </is>
       </c>
       <c r="AA4" t="inlineStr">
         <is>
-          <t>2020-11-04</t>
+          <t>2023-10-02</t>
         </is>
       </c>
       <c r="AB4" t="inlineStr">
         <is>
-          <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC4" t="inlineStr">
-        <is>
-          <t>kolade brandstubbar flera brandljud i serie.</t>
+          <t>13:12</t>
         </is>
       </c>
       <c r="AD4" t="b">
@@ -1011,22 +1007,22 @@
       <c r="AT4" t="inlineStr"/>
       <c r="AW4" t="inlineStr">
         <is>
-          <t>Uno Skog</t>
+          <t>Andreas Öster</t>
         </is>
       </c>
       <c r="AX4" t="inlineStr">
         <is>
-          <t>Uno Skog</t>
+          <t>Andreas Öster</t>
         </is>
       </c>
       <c r="AY4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>98445567</v>
+        <v>112473083</v>
       </c>
       <c r="B5" t="n">
-        <v>77259</v>
+        <v>89806</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1035,41 +1031,42 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>EN</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>228912</v>
+        <v>71</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Mörk kolflarnlav</t>
+          <t>Urskogsporing</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Carbonicola myrmecina</t>
+          <t>Neoantrodia infirma</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(Ach.) Bendiksby &amp; Timdal</t>
+          <t>(Renvall &amp; Niemelä) Audet</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
       <c r="P5" t="inlineStr">
         <is>
-          <t>Stora Tjädersjön söder om, Dlr</t>
+          <t>Prästtjärnen (Prästtjärnen), Dlr</t>
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>518525.4694672552</v>
+        <v>518039</v>
       </c>
       <c r="R5" t="n">
-        <v>6790224.127243591</v>
+        <v>6790377</v>
       </c>
       <c r="S5" t="n">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="T5" t="inlineStr">
         <is>
@@ -1093,27 +1090,22 @@
       </c>
       <c r="Y5" t="inlineStr">
         <is>
-          <t>2020-11-04</t>
+          <t>2023-10-02</t>
         </is>
       </c>
       <c r="Z5" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>13:17</t>
         </is>
       </c>
       <c r="AA5" t="inlineStr">
         <is>
-          <t>2020-11-04</t>
+          <t>2023-10-02</t>
         </is>
       </c>
       <c r="AB5" t="inlineStr">
         <is>
-          <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC5" t="inlineStr">
-        <is>
-          <t>Gallrad tallskog. Tidigare stavatallskog. Klen rätt senvuxen blockig skog.</t>
+          <t>13:17</t>
         </is>
       </c>
       <c r="AD5" t="b">
@@ -1128,22 +1120,22 @@
       <c r="AT5" t="inlineStr"/>
       <c r="AW5" t="inlineStr">
         <is>
-          <t>Uno Skog</t>
+          <t>Andreas Öster</t>
         </is>
       </c>
       <c r="AX5" t="inlineStr">
         <is>
-          <t>Uno Skog</t>
+          <t>Andreas Öster</t>
         </is>
       </c>
       <c r="AY5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>98445551</v>
+        <v>98445540</v>
       </c>
       <c r="B6" t="n">
-        <v>78098</v>
+        <v>77258</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1156,21 +1148,21 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>6453</v>
+        <v>6446</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Vedskivlav</t>
+          <t>Kolflarnlav</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Hertelidea botryosa</t>
+          <t>Carbonicola anthracophila</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(Fr.) Printzen &amp; Kantvilas</t>
+          <t>(Nyl.) Bendiksby &amp; Timdal</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
@@ -1180,10 +1172,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>518387.5544031779</v>
+        <v>518526.4438305593</v>
       </c>
       <c r="R6" t="n">
-        <v>6790138.199902427</v>
+        <v>6790222.206952647</v>
       </c>
       <c r="S6" t="n">
         <v>5</v>
@@ -1226,6 +1218,11 @@
       <c r="AB6" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC6" t="inlineStr">
+        <is>
+          <t>kolade brandstubbar flera brandljud i serie.</t>
         </is>
       </c>
       <c r="AD6" t="b">
@@ -1252,10 +1249,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>98445554</v>
+        <v>98445567</v>
       </c>
       <c r="B7" t="n">
-        <v>56411</v>
+        <v>77259</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1268,21 +1265,21 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>100049</v>
+        <v>228912</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Mörk kolflarnlav</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Dryocopus martius</t>
+          <t>Carbonicola myrmecina</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Bendiksby &amp; Timdal</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
@@ -1292,10 +1289,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>518368.5423215606</v>
+        <v>518525.4694672552</v>
       </c>
       <c r="R7" t="n">
-        <v>6790086.111857381</v>
+        <v>6790224.127243591</v>
       </c>
       <c r="S7" t="n">
         <v>5</v>
@@ -1338,6 +1335,11 @@
       <c r="AB7" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC7" t="inlineStr">
+        <is>
+          <t>Gallrad tallskog. Tidigare stavatallskog. Klen rätt senvuxen blockig skog.</t>
         </is>
       </c>
       <c r="AD7" t="b">
@@ -1364,10 +1366,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>98445547</v>
+        <v>98445551</v>
       </c>
       <c r="B8" t="n">
-        <v>43464</v>
+        <v>78098</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1376,25 +1378,25 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>101735</v>
+        <v>6453</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Jättesvampmal</t>
+          <t>Vedskivlav</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Scardia boletella</t>
+          <t>Hertelidea botryosa</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>(Fabricius, 1794)</t>
+          <t>(Fr.) Printzen &amp; Kantvilas</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
@@ -1404,10 +1406,10 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>518367.5831320664</v>
+        <v>518387.5544031779</v>
       </c>
       <c r="R8" t="n">
-        <v>6790085.144078439</v>
+        <v>6790138.199902427</v>
       </c>
       <c r="S8" t="n">
         <v>5</v>
@@ -1450,11 +1452,6 @@
       <c r="AB8" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC8" t="inlineStr">
-        <is>
-          <t>Spår i Fnöskticka på liggande död halvmurken björklåga.</t>
         </is>
       </c>
       <c r="AD8" t="b">
@@ -1481,10 +1478,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>98445570</v>
+        <v>98445554</v>
       </c>
       <c r="B9" t="n">
-        <v>79433</v>
+        <v>56411</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1497,21 +1494,21 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>1049</v>
+        <v>100049</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Kortskaftad ärgspik</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Microcalicium ahlneri</t>
+          <t>Dryocopus martius</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>Tibell</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
@@ -1521,10 +1518,10 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>518389.0057754845</v>
+        <v>518368.5423215606</v>
       </c>
       <c r="R9" t="n">
-        <v>6790137.24476972</v>
+        <v>6790086.111857381</v>
       </c>
       <c r="S9" t="n">
         <v>5</v>
@@ -1567,11 +1564,6 @@
       <c r="AB9" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC9" t="inlineStr">
-        <is>
-          <t>brandhögstubbe artrik</t>
         </is>
       </c>
       <c r="AD9" t="b">
@@ -1598,10 +1590,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>109005462</v>
+        <v>98445547</v>
       </c>
       <c r="B10" t="n">
-        <v>89666</v>
+        <v>43464</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1610,51 +1602,41 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>CR</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>6008693</v>
+        <v>101735</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Kritporing</t>
+          <t>Jättesvampmal</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Resinoporia crassa</t>
+          <t>Scardia boletella</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>(P.Karst.) Audet</t>
-        </is>
-      </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="J10" t="inlineStr">
-        <is>
-          <t>mycel</t>
-        </is>
-      </c>
-      <c r="K10" t="inlineStr"/>
+          <t>(Fabricius, 1794)</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr"/>
       <c r="P10" t="inlineStr">
         <is>
-          <t>Tjädersjöån, Dlr</t>
+          <t>Stora Tjädersjön söder om, Dlr</t>
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>518434.8797151824</v>
+        <v>518367.5831320664</v>
       </c>
       <c r="R10" t="n">
-        <v>6790306.924078748</v>
+        <v>6790085.144078439</v>
       </c>
       <c r="S10" t="n">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="T10" t="inlineStr">
         <is>
@@ -1678,22 +1660,27 @@
       </c>
       <c r="Y10" t="inlineStr">
         <is>
-          <t>2023-05-12</t>
+          <t>2020-11-04</t>
         </is>
       </c>
       <c r="Z10" t="inlineStr">
         <is>
-          <t>11:01</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AA10" t="inlineStr">
         <is>
-          <t>2023-05-12</t>
+          <t>2020-11-04</t>
         </is>
       </c>
       <c r="AB10" t="inlineStr">
         <is>
-          <t>11:01</t>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC10" t="inlineStr">
+        <is>
+          <t>Spår i Fnöskticka på liggande död halvmurken björklåga.</t>
         </is>
       </c>
       <c r="AD10" t="b">
@@ -1708,15 +1695,254 @@
       <c r="AT10" t="inlineStr"/>
       <c r="AW10" t="inlineStr">
         <is>
+          <t>Uno Skog</t>
+        </is>
+      </c>
+      <c r="AX10" t="inlineStr">
+        <is>
+          <t>Uno Skog</t>
+        </is>
+      </c>
+      <c r="AY10" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>98445570</v>
+      </c>
+      <c r="B11" t="n">
+        <v>79433</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E11" t="n">
+        <v>1049</v>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Kortskaftad ärgspik</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>Microcalicium ahlneri</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Tibell</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr"/>
+      <c r="P11" t="inlineStr">
+        <is>
+          <t>Stora Tjädersjön söder om, Dlr</t>
+        </is>
+      </c>
+      <c r="Q11" t="n">
+        <v>518389.0057754845</v>
+      </c>
+      <c r="R11" t="n">
+        <v>6790137.24476972</v>
+      </c>
+      <c r="S11" t="n">
+        <v>5</v>
+      </c>
+      <c r="T11" t="inlineStr">
+        <is>
+          <t>Dalarna</t>
+        </is>
+      </c>
+      <c r="U11" t="inlineStr">
+        <is>
+          <t>Rättvik</t>
+        </is>
+      </c>
+      <c r="V11" t="inlineStr">
+        <is>
+          <t>Dalarna</t>
+        </is>
+      </c>
+      <c r="W11" t="inlineStr">
+        <is>
+          <t>Ore</t>
+        </is>
+      </c>
+      <c r="Y11" t="inlineStr">
+        <is>
+          <t>2020-11-04</t>
+        </is>
+      </c>
+      <c r="Z11" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA11" t="inlineStr">
+        <is>
+          <t>2020-11-04</t>
+        </is>
+      </c>
+      <c r="AB11" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC11" t="inlineStr">
+        <is>
+          <t>brandhögstubbe artrik</t>
+        </is>
+      </c>
+      <c r="AD11" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE11" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG11" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT11" t="inlineStr"/>
+      <c r="AW11" t="inlineStr">
+        <is>
+          <t>Uno Skog</t>
+        </is>
+      </c>
+      <c r="AX11" t="inlineStr">
+        <is>
+          <t>Uno Skog</t>
+        </is>
+      </c>
+      <c r="AY11" t="inlineStr"/>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>109005462</v>
+      </c>
+      <c r="B12" t="n">
+        <v>89666</v>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>CR</t>
+        </is>
+      </c>
+      <c r="E12" t="n">
+        <v>6008693</v>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Kritporing</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>Resinoporia crassa</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>(P.Karst.) Audet</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>mycel</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr"/>
+      <c r="P12" t="inlineStr">
+        <is>
+          <t>Tjädersjöån, Dlr</t>
+        </is>
+      </c>
+      <c r="Q12" t="n">
+        <v>518434.8797151824</v>
+      </c>
+      <c r="R12" t="n">
+        <v>6790306.924078748</v>
+      </c>
+      <c r="S12" t="n">
+        <v>25</v>
+      </c>
+      <c r="T12" t="inlineStr">
+        <is>
+          <t>Dalarna</t>
+        </is>
+      </c>
+      <c r="U12" t="inlineStr">
+        <is>
+          <t>Rättvik</t>
+        </is>
+      </c>
+      <c r="V12" t="inlineStr">
+        <is>
+          <t>Dalarna</t>
+        </is>
+      </c>
+      <c r="W12" t="inlineStr">
+        <is>
+          <t>Ore</t>
+        </is>
+      </c>
+      <c r="Y12" t="inlineStr">
+        <is>
+          <t>2023-05-12</t>
+        </is>
+      </c>
+      <c r="Z12" t="inlineStr">
+        <is>
+          <t>11:01</t>
+        </is>
+      </c>
+      <c r="AA12" t="inlineStr">
+        <is>
+          <t>2023-05-12</t>
+        </is>
+      </c>
+      <c r="AB12" t="inlineStr">
+        <is>
+          <t>11:01</t>
+        </is>
+      </c>
+      <c r="AD12" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE12" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG12" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT12" t="inlineStr"/>
+      <c r="AW12" t="inlineStr">
+        <is>
           <t>Andreas Öster</t>
         </is>
       </c>
-      <c r="AX10" t="inlineStr">
+      <c r="AX12" t="inlineStr">
         <is>
           <t>Andreas Öster, Maria Hindemo, Niklas Trogen</t>
         </is>
       </c>
-      <c r="AY10" t="inlineStr"/>
+      <c r="AY12" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/artfynd/A 27718-2019.xlsx
+++ b/artfynd/A 27718-2019.xlsx
@@ -683,7 +683,7 @@
         <v>111908383</v>
       </c>
       <c r="B2" t="n">
-        <v>90804</v>
+        <v>90818</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -796,7 +796,7 @@
         <v>111908386</v>
       </c>
       <c r="B3" t="n">
-        <v>88623</v>
+        <v>88637</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -906,10 +906,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>112472885</v>
+        <v>112473083</v>
       </c>
       <c r="B4" t="n">
-        <v>90804</v>
+        <v>89820</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -918,25 +918,25 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>EN</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>4365</v>
+        <v>71</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Smalfotad taggsvamp</t>
+          <t>Urskogsporing</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Hydnellum gracilipes</t>
+          <t>Neoantrodia infirma</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(P.Karst) P.Karst</t>
+          <t>(Renvall &amp; Niemelä) Audet</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
@@ -947,10 +947,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>517956</v>
+        <v>518039</v>
       </c>
       <c r="R4" t="n">
-        <v>6790407</v>
+        <v>6790377</v>
       </c>
       <c r="S4" t="n">
         <v>25</v>
@@ -982,7 +982,7 @@
       </c>
       <c r="Z4" t="inlineStr">
         <is>
-          <t>13:12</t>
+          <t>13:17</t>
         </is>
       </c>
       <c r="AA4" t="inlineStr">
@@ -992,7 +992,7 @@
       </c>
       <c r="AB4" t="inlineStr">
         <is>
-          <t>13:12</t>
+          <t>13:17</t>
         </is>
       </c>
       <c r="AD4" t="b">
@@ -1019,10 +1019,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>112473083</v>
+        <v>112472885</v>
       </c>
       <c r="B5" t="n">
-        <v>89806</v>
+        <v>90818</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1031,25 +1031,25 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>EN</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>71</v>
+        <v>4365</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Urskogsporing</t>
+          <t>Smalfotad taggsvamp</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Neoantrodia infirma</t>
+          <t>Hydnellum gracilipes</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(Renvall &amp; Niemelä) Audet</t>
+          <t>(P.Karst) P.Karst</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
@@ -1060,10 +1060,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>518039</v>
+        <v>517956</v>
       </c>
       <c r="R5" t="n">
-        <v>6790377</v>
+        <v>6790407</v>
       </c>
       <c r="S5" t="n">
         <v>25</v>
@@ -1095,7 +1095,7 @@
       </c>
       <c r="Z5" t="inlineStr">
         <is>
-          <t>13:17</t>
+          <t>13:12</t>
         </is>
       </c>
       <c r="AA5" t="inlineStr">
@@ -1105,7 +1105,7 @@
       </c>
       <c r="AB5" t="inlineStr">
         <is>
-          <t>13:17</t>
+          <t>13:12</t>
         </is>
       </c>
       <c r="AD5" t="b">

--- a/artfynd/A 27718-2019.xlsx
+++ b/artfynd/A 27718-2019.xlsx
@@ -906,10 +906,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>112473083</v>
+        <v>112472885</v>
       </c>
       <c r="B4" t="n">
-        <v>89820</v>
+        <v>90818</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -918,25 +918,25 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>EN</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>71</v>
+        <v>4365</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Urskogsporing</t>
+          <t>Smalfotad taggsvamp</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Neoantrodia infirma</t>
+          <t>Hydnellum gracilipes</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(Renvall &amp; Niemelä) Audet</t>
+          <t>(P.Karst) P.Karst</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
@@ -947,10 +947,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>518039</v>
+        <v>517956</v>
       </c>
       <c r="R4" t="n">
-        <v>6790377</v>
+        <v>6790407</v>
       </c>
       <c r="S4" t="n">
         <v>25</v>
@@ -982,7 +982,7 @@
       </c>
       <c r="Z4" t="inlineStr">
         <is>
-          <t>13:17</t>
+          <t>13:12</t>
         </is>
       </c>
       <c r="AA4" t="inlineStr">
@@ -992,7 +992,7 @@
       </c>
       <c r="AB4" t="inlineStr">
         <is>
-          <t>13:17</t>
+          <t>13:12</t>
         </is>
       </c>
       <c r="AD4" t="b">
@@ -1019,10 +1019,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>112472885</v>
+        <v>112473083</v>
       </c>
       <c r="B5" t="n">
-        <v>90818</v>
+        <v>89820</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1031,25 +1031,25 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>EN</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>4365</v>
+        <v>71</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Smalfotad taggsvamp</t>
+          <t>Urskogsporing</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Hydnellum gracilipes</t>
+          <t>Neoantrodia infirma</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(P.Karst) P.Karst</t>
+          <t>(Renvall &amp; Niemelä) Audet</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
@@ -1060,10 +1060,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>517956</v>
+        <v>518039</v>
       </c>
       <c r="R5" t="n">
-        <v>6790407</v>
+        <v>6790377</v>
       </c>
       <c r="S5" t="n">
         <v>25</v>
@@ -1095,7 +1095,7 @@
       </c>
       <c r="Z5" t="inlineStr">
         <is>
-          <t>13:12</t>
+          <t>13:17</t>
         </is>
       </c>
       <c r="AA5" t="inlineStr">
@@ -1105,7 +1105,7 @@
       </c>
       <c r="AB5" t="inlineStr">
         <is>
-          <t>13:12</t>
+          <t>13:17</t>
         </is>
       </c>
       <c r="AD5" t="b">
